--- a/EIC/expdata/1000.xlsx
+++ b/EIC/expdata/1000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="9">
   <si>
     <t>Q2</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>lum</t>
+  </si>
+  <si>
+    <t>100:fb-1</t>
   </si>
 </sst>
 </file>
@@ -449,8 +452,8 @@
       <c r="G2">
         <v>0.00515</v>
       </c>
-      <c r="H2">
-        <v>100</v>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -475,8 +478,8 @@
       <c r="G3">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H3">
-        <v>100</v>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -501,8 +504,8 @@
       <c r="G4">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H4">
-        <v>100</v>
+      <c r="H4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -527,8 +530,8 @@
       <c r="G5">
         <v>0.0129</v>
       </c>
-      <c r="H5">
-        <v>100</v>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -553,8 +556,8 @@
       <c r="G6">
         <v>0.0129</v>
       </c>
-      <c r="H6">
-        <v>100</v>
+      <c r="H6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -579,8 +582,8 @@
       <c r="G7">
         <v>0.0129</v>
       </c>
-      <c r="H7">
-        <v>100</v>
+      <c r="H7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -605,8 +608,8 @@
       <c r="G8">
         <v>0.0205</v>
       </c>
-      <c r="H8">
-        <v>100</v>
+      <c r="H8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -631,8 +634,8 @@
       <c r="G9">
         <v>0.0205</v>
       </c>
-      <c r="H9">
-        <v>100</v>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -657,8 +660,8 @@
       <c r="G10">
         <v>0.0205</v>
       </c>
-      <c r="H10">
-        <v>100</v>
+      <c r="H10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -683,8 +686,8 @@
       <c r="G11">
         <v>0.0205</v>
       </c>
-      <c r="H11">
-        <v>100</v>
+      <c r="H11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -709,8 +712,8 @@
       <c r="G12">
         <v>0.0325</v>
       </c>
-      <c r="H12">
-        <v>100</v>
+      <c r="H12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -735,8 +738,8 @@
       <c r="G13">
         <v>0.0325</v>
       </c>
-      <c r="H13">
-        <v>100</v>
+      <c r="H13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -761,8 +764,8 @@
       <c r="G14">
         <v>0.0325</v>
       </c>
-      <c r="H14">
-        <v>100</v>
+      <c r="H14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -787,8 +790,8 @@
       <c r="G15">
         <v>0.0325</v>
       </c>
-      <c r="H15">
-        <v>100</v>
+      <c r="H15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -813,8 +816,8 @@
       <c r="G16">
         <v>0.0325</v>
       </c>
-      <c r="H16">
-        <v>100</v>
+      <c r="H16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -839,8 +842,8 @@
       <c r="G17">
         <v>0.0515</v>
       </c>
-      <c r="H17">
-        <v>100</v>
+      <c r="H17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -865,8 +868,8 @@
       <c r="G18">
         <v>0.0515</v>
       </c>
-      <c r="H18">
-        <v>100</v>
+      <c r="H18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -891,8 +894,8 @@
       <c r="G19">
         <v>0.0515</v>
       </c>
-      <c r="H19">
-        <v>100</v>
+      <c r="H19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -917,8 +920,8 @@
       <c r="G20">
         <v>0.0515</v>
       </c>
-      <c r="H20">
-        <v>100</v>
+      <c r="H20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -943,8 +946,8 @@
       <c r="G21">
         <v>0.0515</v>
       </c>
-      <c r="H21">
-        <v>100</v>
+      <c r="H21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -969,8 +972,8 @@
       <c r="G22">
         <v>0.0515</v>
       </c>
-      <c r="H22">
-        <v>100</v>
+      <c r="H22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -995,8 +998,8 @@
       <c r="G23">
         <v>0.0815</v>
       </c>
-      <c r="H23">
-        <v>100</v>
+      <c r="H23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1021,8 +1024,8 @@
       <c r="G24">
         <v>0.0815</v>
       </c>
-      <c r="H24">
-        <v>100</v>
+      <c r="H24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1047,8 +1050,8 @@
       <c r="G25">
         <v>0.0815</v>
       </c>
-      <c r="H25">
-        <v>100</v>
+      <c r="H25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1073,8 +1076,8 @@
       <c r="G26">
         <v>0.0815</v>
       </c>
-      <c r="H26">
-        <v>100</v>
+      <c r="H26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1099,8 +1102,8 @@
       <c r="G27">
         <v>0.0815</v>
       </c>
-      <c r="H27">
-        <v>100</v>
+      <c r="H27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1125,8 +1128,8 @@
       <c r="G28">
         <v>0.0815</v>
       </c>
-      <c r="H28">
-        <v>100</v>
+      <c r="H28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1151,8 +1154,8 @@
       <c r="G29">
         <v>0.0815</v>
       </c>
-      <c r="H29">
-        <v>100</v>
+      <c r="H29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1177,8 +1180,8 @@
       <c r="G30">
         <v>0.129</v>
       </c>
-      <c r="H30">
-        <v>100</v>
+      <c r="H30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1203,8 +1206,8 @@
       <c r="G31">
         <v>0.129</v>
       </c>
-      <c r="H31">
-        <v>100</v>
+      <c r="H31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1229,8 +1232,8 @@
       <c r="G32">
         <v>0.129</v>
       </c>
-      <c r="H32">
-        <v>100</v>
+      <c r="H32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1255,8 +1258,8 @@
       <c r="G33">
         <v>0.129</v>
       </c>
-      <c r="H33">
-        <v>100</v>
+      <c r="H33" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1281,8 +1284,8 @@
       <c r="G34">
         <v>0.129</v>
       </c>
-      <c r="H34">
-        <v>100</v>
+      <c r="H34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1307,8 +1310,8 @@
       <c r="G35">
         <v>0.129</v>
       </c>
-      <c r="H35">
-        <v>100</v>
+      <c r="H35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1333,8 +1336,8 @@
       <c r="G36">
         <v>0.129</v>
       </c>
-      <c r="H36">
-        <v>100</v>
+      <c r="H36" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1359,8 +1362,8 @@
       <c r="G37">
         <v>0.129</v>
       </c>
-      <c r="H37">
-        <v>100</v>
+      <c r="H37" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1385,8 +1388,8 @@
       <c r="G38">
         <v>0.205</v>
       </c>
-      <c r="H38">
-        <v>100</v>
+      <c r="H38" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1411,8 +1414,8 @@
       <c r="G39">
         <v>0.205</v>
       </c>
-      <c r="H39">
-        <v>100</v>
+      <c r="H39" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1437,8 +1440,8 @@
       <c r="G40">
         <v>0.205</v>
       </c>
-      <c r="H40">
-        <v>100</v>
+      <c r="H40" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1463,8 +1466,8 @@
       <c r="G41">
         <v>0.205</v>
       </c>
-      <c r="H41">
-        <v>100</v>
+      <c r="H41" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1489,8 +1492,8 @@
       <c r="G42">
         <v>0.205</v>
       </c>
-      <c r="H42">
-        <v>100</v>
+      <c r="H42" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1515,8 +1518,8 @@
       <c r="G43">
         <v>0.205</v>
       </c>
-      <c r="H43">
-        <v>100</v>
+      <c r="H43" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1541,8 +1544,8 @@
       <c r="G44">
         <v>0.205</v>
       </c>
-      <c r="H44">
-        <v>100</v>
+      <c r="H44" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1567,8 +1570,8 @@
       <c r="G45">
         <v>0.205</v>
       </c>
-      <c r="H45">
-        <v>100</v>
+      <c r="H45" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1593,8 +1596,8 @@
       <c r="G46">
         <v>0.205</v>
       </c>
-      <c r="H46">
-        <v>100</v>
+      <c r="H46" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1619,8 +1622,8 @@
       <c r="G47">
         <v>0.325</v>
       </c>
-      <c r="H47">
-        <v>100</v>
+      <c r="H47" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1645,8 +1648,8 @@
       <c r="G48">
         <v>0.325</v>
       </c>
-      <c r="H48">
-        <v>100</v>
+      <c r="H48" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1671,8 +1674,8 @@
       <c r="G49">
         <v>0.325</v>
       </c>
-      <c r="H49">
-        <v>100</v>
+      <c r="H49" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1697,8 +1700,8 @@
       <c r="G50">
         <v>0.325</v>
       </c>
-      <c r="H50">
-        <v>100</v>
+      <c r="H50" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1723,8 +1726,8 @@
       <c r="G51">
         <v>0.325</v>
       </c>
-      <c r="H51">
-        <v>100</v>
+      <c r="H51" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1749,8 +1752,8 @@
       <c r="G52">
         <v>0.325</v>
       </c>
-      <c r="H52">
-        <v>100</v>
+      <c r="H52" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1775,8 +1778,8 @@
       <c r="G53">
         <v>0.325</v>
       </c>
-      <c r="H53">
-        <v>100</v>
+      <c r="H53" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1801,8 +1804,8 @@
       <c r="G54">
         <v>0.325</v>
       </c>
-      <c r="H54">
-        <v>100</v>
+      <c r="H54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1827,8 +1830,8 @@
       <c r="G55">
         <v>0.325</v>
       </c>
-      <c r="H55">
-        <v>100</v>
+      <c r="H55" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1853,8 +1856,8 @@
       <c r="G56">
         <v>0.325</v>
       </c>
-      <c r="H56">
-        <v>100</v>
+      <c r="H56" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1879,8 +1882,8 @@
       <c r="G57">
         <v>0.325</v>
       </c>
-      <c r="H57">
-        <v>100</v>
+      <c r="H57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1905,8 +1908,8 @@
       <c r="G58">
         <v>0.515</v>
       </c>
-      <c r="H58">
-        <v>100</v>
+      <c r="H58" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1931,8 +1934,8 @@
       <c r="G59">
         <v>0.515</v>
       </c>
-      <c r="H59">
-        <v>100</v>
+      <c r="H59" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1957,8 +1960,8 @@
       <c r="G60">
         <v>0.515</v>
       </c>
-      <c r="H60">
-        <v>100</v>
+      <c r="H60" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1983,8 +1986,8 @@
       <c r="G61">
         <v>0.515</v>
       </c>
-      <c r="H61">
-        <v>100</v>
+      <c r="H61" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2009,8 +2012,8 @@
       <c r="G62">
         <v>0.515</v>
       </c>
-      <c r="H62">
-        <v>100</v>
+      <c r="H62" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2035,8 +2038,8 @@
       <c r="G63">
         <v>0.515</v>
       </c>
-      <c r="H63">
-        <v>100</v>
+      <c r="H63" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2061,8 +2064,8 @@
       <c r="G64">
         <v>0.515</v>
       </c>
-      <c r="H64">
-        <v>100</v>
+      <c r="H64" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2087,8 +2090,8 @@
       <c r="G65">
         <v>0.515</v>
       </c>
-      <c r="H65">
-        <v>100</v>
+      <c r="H65" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2113,8 +2116,8 @@
       <c r="G66">
         <v>0.515</v>
       </c>
-      <c r="H66">
-        <v>100</v>
+      <c r="H66" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2139,8 +2142,8 @@
       <c r="G67">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H67">
-        <v>100</v>
+      <c r="H67" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2165,8 +2168,8 @@
       <c r="G68">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H68">
-        <v>100</v>
+      <c r="H68" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2191,8 +2194,8 @@
       <c r="G69">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H69">
-        <v>100</v>
+      <c r="H69" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2217,8 +2220,8 @@
       <c r="G70">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H70">
-        <v>100</v>
+      <c r="H70" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2243,8 +2246,8 @@
       <c r="G71">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H71">
-        <v>100</v>
+      <c r="H71" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2269,8 +2272,8 @@
       <c r="G72">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H72">
-        <v>100</v>
+      <c r="H72" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2295,8 +2298,8 @@
       <c r="G73">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H73">
-        <v>100</v>
+      <c r="H73" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2321,8 +2324,8 @@
       <c r="G74">
         <v>0.00205</v>
       </c>
-      <c r="H74">
-        <v>100</v>
+      <c r="H74" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2347,8 +2350,8 @@
       <c r="G75">
         <v>0.00325</v>
       </c>
-      <c r="H75">
-        <v>100</v>
+      <c r="H75" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2373,8 +2376,8 @@
       <c r="G76">
         <v>0.00325</v>
       </c>
-      <c r="H76">
-        <v>100</v>
+      <c r="H76" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2399,8 +2402,8 @@
       <c r="G77">
         <v>0.00515</v>
       </c>
-      <c r="H77">
-        <v>100</v>
+      <c r="H77" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2425,8 +2428,8 @@
       <c r="G78">
         <v>0.00515</v>
       </c>
-      <c r="H78">
-        <v>100</v>
+      <c r="H78" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2451,8 +2454,8 @@
       <c r="G79">
         <v>0.00515</v>
       </c>
-      <c r="H79">
-        <v>100</v>
+      <c r="H79" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2477,8 +2480,8 @@
       <c r="G80">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H80">
-        <v>100</v>
+      <c r="H80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2503,8 +2506,8 @@
       <c r="G81">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H81">
-        <v>100</v>
+      <c r="H81" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2529,8 +2532,8 @@
       <c r="G82">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H82">
-        <v>100</v>
+      <c r="H82" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2555,8 +2558,8 @@
       <c r="G83">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H83">
-        <v>100</v>
+      <c r="H83" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2581,8 +2584,8 @@
       <c r="G84">
         <v>0.0129</v>
       </c>
-      <c r="H84">
-        <v>100</v>
+      <c r="H84" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2607,8 +2610,8 @@
       <c r="G85">
         <v>0.0129</v>
       </c>
-      <c r="H85">
-        <v>100</v>
+      <c r="H85" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2633,8 +2636,8 @@
       <c r="G86">
         <v>0.0129</v>
       </c>
-      <c r="H86">
-        <v>100</v>
+      <c r="H86" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2659,8 +2662,8 @@
       <c r="G87">
         <v>0.0129</v>
       </c>
-      <c r="H87">
-        <v>100</v>
+      <c r="H87" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2685,8 +2688,8 @@
       <c r="G88">
         <v>0.0129</v>
       </c>
-      <c r="H88">
-        <v>100</v>
+      <c r="H88" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2711,8 +2714,8 @@
       <c r="G89">
         <v>0.0205</v>
       </c>
-      <c r="H89">
-        <v>100</v>
+      <c r="H89" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2737,8 +2740,8 @@
       <c r="G90">
         <v>0.0205</v>
       </c>
-      <c r="H90">
-        <v>100</v>
+      <c r="H90" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2763,8 +2766,8 @@
       <c r="G91">
         <v>0.0205</v>
       </c>
-      <c r="H91">
-        <v>100</v>
+      <c r="H91" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2789,8 +2792,8 @@
       <c r="G92">
         <v>0.0205</v>
       </c>
-      <c r="H92">
-        <v>100</v>
+      <c r="H92" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2815,8 +2818,8 @@
       <c r="G93">
         <v>0.0205</v>
       </c>
-      <c r="H93">
-        <v>100</v>
+      <c r="H93" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2841,8 +2844,8 @@
       <c r="G94">
         <v>0.0205</v>
       </c>
-      <c r="H94">
-        <v>100</v>
+      <c r="H94" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2867,8 +2870,8 @@
       <c r="G95">
         <v>0.0325</v>
       </c>
-      <c r="H95">
-        <v>100</v>
+      <c r="H95" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2893,8 +2896,8 @@
       <c r="G96">
         <v>0.0325</v>
       </c>
-      <c r="H96">
-        <v>100</v>
+      <c r="H96" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2919,8 +2922,8 @@
       <c r="G97">
         <v>0.0325</v>
       </c>
-      <c r="H97">
-        <v>100</v>
+      <c r="H97" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2945,8 +2948,8 @@
       <c r="G98">
         <v>0.0325</v>
       </c>
-      <c r="H98">
-        <v>100</v>
+      <c r="H98" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2971,8 +2974,8 @@
       <c r="G99">
         <v>0.0325</v>
       </c>
-      <c r="H99">
-        <v>100</v>
+      <c r="H99" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2997,8 +3000,8 @@
       <c r="G100">
         <v>0.0325</v>
       </c>
-      <c r="H100">
-        <v>100</v>
+      <c r="H100" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3023,8 +3026,8 @@
       <c r="G101">
         <v>0.0325</v>
       </c>
-      <c r="H101">
-        <v>100</v>
+      <c r="H101" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3049,8 +3052,8 @@
       <c r="G102">
         <v>0.0515</v>
       </c>
-      <c r="H102">
-        <v>100</v>
+      <c r="H102" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3075,8 +3078,8 @@
       <c r="G103">
         <v>0.0515</v>
       </c>
-      <c r="H103">
-        <v>100</v>
+      <c r="H103" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3101,8 +3104,8 @@
       <c r="G104">
         <v>0.0515</v>
       </c>
-      <c r="H104">
-        <v>100</v>
+      <c r="H104" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3127,8 +3130,8 @@
       <c r="G105">
         <v>0.0515</v>
       </c>
-      <c r="H105">
-        <v>100</v>
+      <c r="H105" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3153,8 +3156,8 @@
       <c r="G106">
         <v>0.0515</v>
       </c>
-      <c r="H106">
-        <v>100</v>
+      <c r="H106" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3179,8 +3182,8 @@
       <c r="G107">
         <v>0.0515</v>
       </c>
-      <c r="H107">
-        <v>100</v>
+      <c r="H107" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3205,8 +3208,8 @@
       <c r="G108">
         <v>0.0515</v>
       </c>
-      <c r="H108">
-        <v>100</v>
+      <c r="H108" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3231,8 +3234,8 @@
       <c r="G109">
         <v>0.0515</v>
       </c>
-      <c r="H109">
-        <v>100</v>
+      <c r="H109" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3257,8 +3260,8 @@
       <c r="G110">
         <v>0.0815</v>
       </c>
-      <c r="H110">
-        <v>100</v>
+      <c r="H110" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3283,8 +3286,8 @@
       <c r="G111">
         <v>0.0815</v>
       </c>
-      <c r="H111">
-        <v>100</v>
+      <c r="H111" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3309,8 +3312,8 @@
       <c r="G112">
         <v>0.0815</v>
       </c>
-      <c r="H112">
-        <v>100</v>
+      <c r="H112" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3335,8 +3338,8 @@
       <c r="G113">
         <v>0.0815</v>
       </c>
-      <c r="H113">
-        <v>100</v>
+      <c r="H113" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3361,8 +3364,8 @@
       <c r="G114">
         <v>0.0815</v>
       </c>
-      <c r="H114">
-        <v>100</v>
+      <c r="H114" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3387,8 +3390,8 @@
       <c r="G115">
         <v>0.0815</v>
       </c>
-      <c r="H115">
-        <v>100</v>
+      <c r="H115" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3413,8 +3416,8 @@
       <c r="G116">
         <v>0.0815</v>
       </c>
-      <c r="H116">
-        <v>100</v>
+      <c r="H116" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3439,8 +3442,8 @@
       <c r="G117">
         <v>0.0815</v>
       </c>
-      <c r="H117">
-        <v>100</v>
+      <c r="H117" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3465,8 +3468,8 @@
       <c r="G118">
         <v>0.0815</v>
       </c>
-      <c r="H118">
-        <v>100</v>
+      <c r="H118" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3491,8 +3494,8 @@
       <c r="G119">
         <v>0.129</v>
       </c>
-      <c r="H119">
-        <v>100</v>
+      <c r="H119" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3517,8 +3520,8 @@
       <c r="G120">
         <v>0.129</v>
       </c>
-      <c r="H120">
-        <v>100</v>
+      <c r="H120" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3543,8 +3546,8 @@
       <c r="G121">
         <v>0.129</v>
       </c>
-      <c r="H121">
-        <v>100</v>
+      <c r="H121" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3569,8 +3572,8 @@
       <c r="G122">
         <v>0.129</v>
       </c>
-      <c r="H122">
-        <v>100</v>
+      <c r="H122" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3595,8 +3598,8 @@
       <c r="G123">
         <v>0.129</v>
       </c>
-      <c r="H123">
-        <v>100</v>
+      <c r="H123" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3621,8 +3624,8 @@
       <c r="G124">
         <v>0.129</v>
       </c>
-      <c r="H124">
-        <v>100</v>
+      <c r="H124" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3647,8 +3650,8 @@
       <c r="G125">
         <v>0.129</v>
       </c>
-      <c r="H125">
-        <v>100</v>
+      <c r="H125" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3673,8 +3676,8 @@
       <c r="G126">
         <v>0.129</v>
       </c>
-      <c r="H126">
-        <v>100</v>
+      <c r="H126" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3699,8 +3702,8 @@
       <c r="G127">
         <v>0.129</v>
       </c>
-      <c r="H127">
-        <v>100</v>
+      <c r="H127" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3725,8 +3728,8 @@
       <c r="G128">
         <v>0.129</v>
       </c>
-      <c r="H128">
-        <v>100</v>
+      <c r="H128" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3751,8 +3754,8 @@
       <c r="G129">
         <v>0.205</v>
       </c>
-      <c r="H129">
-        <v>100</v>
+      <c r="H129" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3777,8 +3780,8 @@
       <c r="G130">
         <v>0.205</v>
       </c>
-      <c r="H130">
-        <v>100</v>
+      <c r="H130" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3803,8 +3806,8 @@
       <c r="G131">
         <v>0.205</v>
       </c>
-      <c r="H131">
-        <v>100</v>
+      <c r="H131" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3829,8 +3832,8 @@
       <c r="G132">
         <v>0.205</v>
       </c>
-      <c r="H132">
-        <v>100</v>
+      <c r="H132" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3855,8 +3858,8 @@
       <c r="G133">
         <v>0.205</v>
       </c>
-      <c r="H133">
-        <v>100</v>
+      <c r="H133" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3881,8 +3884,8 @@
       <c r="G134">
         <v>0.205</v>
       </c>
-      <c r="H134">
-        <v>100</v>
+      <c r="H134" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3907,8 +3910,8 @@
       <c r="G135">
         <v>0.205</v>
       </c>
-      <c r="H135">
-        <v>100</v>
+      <c r="H135" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3933,8 +3936,8 @@
       <c r="G136">
         <v>0.205</v>
       </c>
-      <c r="H136">
-        <v>100</v>
+      <c r="H136" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3959,8 +3962,8 @@
       <c r="G137">
         <v>0.205</v>
       </c>
-      <c r="H137">
-        <v>100</v>
+      <c r="H137" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3985,8 +3988,8 @@
       <c r="G138">
         <v>0.205</v>
       </c>
-      <c r="H138">
-        <v>100</v>
+      <c r="H138" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4011,8 +4014,8 @@
       <c r="G139">
         <v>0.205</v>
       </c>
-      <c r="H139">
-        <v>100</v>
+      <c r="H139" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4037,8 +4040,8 @@
       <c r="G140">
         <v>0.325</v>
       </c>
-      <c r="H140">
-        <v>100</v>
+      <c r="H140" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4063,8 +4066,8 @@
       <c r="G141">
         <v>0.325</v>
       </c>
-      <c r="H141">
-        <v>100</v>
+      <c r="H141" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4089,8 +4092,8 @@
       <c r="G142">
         <v>0.325</v>
       </c>
-      <c r="H142">
-        <v>100</v>
+      <c r="H142" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4115,8 +4118,8 @@
       <c r="G143">
         <v>0.325</v>
       </c>
-      <c r="H143">
-        <v>100</v>
+      <c r="H143" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4141,8 +4144,8 @@
       <c r="G144">
         <v>0.325</v>
       </c>
-      <c r="H144">
-        <v>100</v>
+      <c r="H144" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4167,8 +4170,8 @@
       <c r="G145">
         <v>0.325</v>
       </c>
-      <c r="H145">
-        <v>100</v>
+      <c r="H145" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4193,8 +4196,8 @@
       <c r="G146">
         <v>0.325</v>
       </c>
-      <c r="H146">
-        <v>100</v>
+      <c r="H146" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4219,8 +4222,8 @@
       <c r="G147">
         <v>0.325</v>
       </c>
-      <c r="H147">
-        <v>100</v>
+      <c r="H147" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4245,8 +4248,8 @@
       <c r="G148">
         <v>0.325</v>
       </c>
-      <c r="H148">
-        <v>100</v>
+      <c r="H148" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4271,8 +4274,8 @@
       <c r="G149">
         <v>0.325</v>
       </c>
-      <c r="H149">
-        <v>100</v>
+      <c r="H149" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4297,8 +4300,8 @@
       <c r="G150">
         <v>0.325</v>
       </c>
-      <c r="H150">
-        <v>100</v>
+      <c r="H150" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4323,8 +4326,8 @@
       <c r="G151">
         <v>0.325</v>
       </c>
-      <c r="H151">
-        <v>100</v>
+      <c r="H151" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4349,8 +4352,8 @@
       <c r="G152">
         <v>0.325</v>
       </c>
-      <c r="H152">
-        <v>100</v>
+      <c r="H152" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4375,8 +4378,8 @@
       <c r="G153">
         <v>0.515</v>
       </c>
-      <c r="H153">
-        <v>100</v>
+      <c r="H153" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4401,8 +4404,8 @@
       <c r="G154">
         <v>0.515</v>
       </c>
-      <c r="H154">
-        <v>100</v>
+      <c r="H154" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4427,8 +4430,8 @@
       <c r="G155">
         <v>0.515</v>
       </c>
-      <c r="H155">
-        <v>100</v>
+      <c r="H155" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4453,8 +4456,8 @@
       <c r="G156">
         <v>0.515</v>
       </c>
-      <c r="H156">
-        <v>100</v>
+      <c r="H156" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4479,8 +4482,8 @@
       <c r="G157">
         <v>0.515</v>
       </c>
-      <c r="H157">
-        <v>100</v>
+      <c r="H157" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4505,8 +4508,8 @@
       <c r="G158">
         <v>0.515</v>
       </c>
-      <c r="H158">
-        <v>100</v>
+      <c r="H158" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4531,8 +4534,8 @@
       <c r="G159">
         <v>0.515</v>
       </c>
-      <c r="H159">
-        <v>100</v>
+      <c r="H159" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4557,8 +4560,8 @@
       <c r="G160">
         <v>0.515</v>
       </c>
-      <c r="H160">
-        <v>100</v>
+      <c r="H160" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4583,8 +4586,8 @@
       <c r="G161">
         <v>0.515</v>
       </c>
-      <c r="H161">
-        <v>100</v>
+      <c r="H161" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4609,8 +4612,8 @@
       <c r="G162">
         <v>0.515</v>
       </c>
-      <c r="H162">
-        <v>100</v>
+      <c r="H162" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4635,8 +4638,8 @@
       <c r="G163">
         <v>0.515</v>
       </c>
-      <c r="H163">
-        <v>100</v>
+      <c r="H163" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4661,8 +4664,8 @@
       <c r="G164">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H164">
-        <v>100</v>
+      <c r="H164" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4687,8 +4690,8 @@
       <c r="G165">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H165">
-        <v>100</v>
+      <c r="H165" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4713,8 +4716,8 @@
       <c r="G166">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H166">
-        <v>100</v>
+      <c r="H166" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4739,8 +4742,8 @@
       <c r="G167">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H167">
-        <v>100</v>
+      <c r="H167" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4765,8 +4768,8 @@
       <c r="G168">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H168">
-        <v>100</v>
+      <c r="H168" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4791,8 +4794,8 @@
       <c r="G169">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H169">
-        <v>100</v>
+      <c r="H169" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4817,8 +4820,8 @@
       <c r="G170">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H170">
-        <v>100</v>
+      <c r="H170" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4843,8 +4846,8 @@
       <c r="G171">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H171">
-        <v>100</v>
+      <c r="H171" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4869,8 +4872,8 @@
       <c r="G172">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H172">
-        <v>100</v>
+      <c r="H172" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4895,8 +4898,8 @@
       <c r="G173">
         <v>0.000815</v>
       </c>
-      <c r="H173">
-        <v>100</v>
+      <c r="H173" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4921,8 +4924,8 @@
       <c r="G174">
         <v>0.00129</v>
       </c>
-      <c r="H174">
-        <v>100</v>
+      <c r="H174" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4947,8 +4950,8 @@
       <c r="G175">
         <v>0.00129</v>
       </c>
-      <c r="H175">
-        <v>100</v>
+      <c r="H175" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4973,8 +4976,8 @@
       <c r="G176">
         <v>0.00205</v>
       </c>
-      <c r="H176">
-        <v>100</v>
+      <c r="H176" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4999,8 +5002,8 @@
       <c r="G177">
         <v>0.00205</v>
       </c>
-      <c r="H177">
-        <v>100</v>
+      <c r="H177" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5025,8 +5028,8 @@
       <c r="G178">
         <v>0.00205</v>
       </c>
-      <c r="H178">
-        <v>100</v>
+      <c r="H178" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5051,8 +5054,8 @@
       <c r="G179">
         <v>0.00325</v>
       </c>
-      <c r="H179">
-        <v>100</v>
+      <c r="H179" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5077,8 +5080,8 @@
       <c r="G180">
         <v>0.00325</v>
       </c>
-      <c r="H180">
-        <v>100</v>
+      <c r="H180" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5103,8 +5106,8 @@
       <c r="G181">
         <v>0.00325</v>
       </c>
-      <c r="H181">
-        <v>100</v>
+      <c r="H181" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5129,8 +5132,8 @@
       <c r="G182">
         <v>0.00325</v>
       </c>
-      <c r="H182">
-        <v>100</v>
+      <c r="H182" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5155,8 +5158,8 @@
       <c r="G183">
         <v>0.00515</v>
       </c>
-      <c r="H183">
-        <v>100</v>
+      <c r="H183" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5181,8 +5184,8 @@
       <c r="G184">
         <v>0.00515</v>
       </c>
-      <c r="H184">
-        <v>100</v>
+      <c r="H184" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5207,8 +5210,8 @@
       <c r="G185">
         <v>0.00515</v>
       </c>
-      <c r="H185">
-        <v>100</v>
+      <c r="H185" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5233,8 +5236,8 @@
       <c r="G186">
         <v>0.00515</v>
       </c>
-      <c r="H186">
-        <v>100</v>
+      <c r="H186" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5259,8 +5262,8 @@
       <c r="G187">
         <v>0.00515</v>
       </c>
-      <c r="H187">
-        <v>100</v>
+      <c r="H187" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5285,8 +5288,8 @@
       <c r="G188">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H188">
-        <v>100</v>
+      <c r="H188" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5311,8 +5314,8 @@
       <c r="G189">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H189">
-        <v>100</v>
+      <c r="H189" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5337,8 +5340,8 @@
       <c r="G190">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H190">
-        <v>100</v>
+      <c r="H190" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5363,8 +5366,8 @@
       <c r="G191">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H191">
-        <v>100</v>
+      <c r="H191" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5389,8 +5392,8 @@
       <c r="G192">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H192">
-        <v>100</v>
+      <c r="H192" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5415,8 +5418,8 @@
       <c r="G193">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H193">
-        <v>100</v>
+      <c r="H193" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5441,8 +5444,8 @@
       <c r="G194">
         <v>0.0129</v>
       </c>
-      <c r="H194">
-        <v>100</v>
+      <c r="H194" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5467,8 +5470,8 @@
       <c r="G195">
         <v>0.0129</v>
       </c>
-      <c r="H195">
-        <v>100</v>
+      <c r="H195" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5493,8 +5496,8 @@
       <c r="G196">
         <v>0.0129</v>
       </c>
-      <c r="H196">
-        <v>100</v>
+      <c r="H196" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5519,8 +5522,8 @@
       <c r="G197">
         <v>0.0129</v>
       </c>
-      <c r="H197">
-        <v>100</v>
+      <c r="H197" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5545,8 +5548,8 @@
       <c r="G198">
         <v>0.0129</v>
       </c>
-      <c r="H198">
-        <v>100</v>
+      <c r="H198" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5571,8 +5574,8 @@
       <c r="G199">
         <v>0.0129</v>
       </c>
-      <c r="H199">
-        <v>100</v>
+      <c r="H199" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5597,8 +5600,8 @@
       <c r="G200">
         <v>0.0129</v>
       </c>
-      <c r="H200">
-        <v>100</v>
+      <c r="H200" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5623,8 +5626,8 @@
       <c r="G201">
         <v>0.0205</v>
       </c>
-      <c r="H201">
-        <v>100</v>
+      <c r="H201" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5649,8 +5652,8 @@
       <c r="G202">
         <v>0.0205</v>
       </c>
-      <c r="H202">
-        <v>100</v>
+      <c r="H202" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5675,8 +5678,8 @@
       <c r="G203">
         <v>0.0205</v>
       </c>
-      <c r="H203">
-        <v>100</v>
+      <c r="H203" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5701,8 +5704,8 @@
       <c r="G204">
         <v>0.0205</v>
       </c>
-      <c r="H204">
-        <v>100</v>
+      <c r="H204" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5727,8 +5730,8 @@
       <c r="G205">
         <v>0.0205</v>
       </c>
-      <c r="H205">
-        <v>100</v>
+      <c r="H205" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5753,8 +5756,8 @@
       <c r="G206">
         <v>0.0205</v>
       </c>
-      <c r="H206">
-        <v>100</v>
+      <c r="H206" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5779,8 +5782,8 @@
       <c r="G207">
         <v>0.0205</v>
       </c>
-      <c r="H207">
-        <v>100</v>
+      <c r="H207" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5805,8 +5808,8 @@
       <c r="G208">
         <v>0.0205</v>
       </c>
-      <c r="H208">
-        <v>100</v>
+      <c r="H208" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5831,8 +5834,8 @@
       <c r="G209">
         <v>0.0325</v>
       </c>
-      <c r="H209">
-        <v>100</v>
+      <c r="H209" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5857,8 +5860,8 @@
       <c r="G210">
         <v>0.0325</v>
       </c>
-      <c r="H210">
-        <v>100</v>
+      <c r="H210" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5883,8 +5886,8 @@
       <c r="G211">
         <v>0.0325</v>
       </c>
-      <c r="H211">
-        <v>100</v>
+      <c r="H211" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5909,8 +5912,8 @@
       <c r="G212">
         <v>0.0325</v>
       </c>
-      <c r="H212">
-        <v>100</v>
+      <c r="H212" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5935,8 +5938,8 @@
       <c r="G213">
         <v>0.0325</v>
       </c>
-      <c r="H213">
-        <v>100</v>
+      <c r="H213" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5961,8 +5964,8 @@
       <c r="G214">
         <v>0.0325</v>
       </c>
-      <c r="H214">
-        <v>100</v>
+      <c r="H214" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5987,8 +5990,8 @@
       <c r="G215">
         <v>0.0325</v>
       </c>
-      <c r="H215">
-        <v>100</v>
+      <c r="H215" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6013,8 +6016,8 @@
       <c r="G216">
         <v>0.0325</v>
       </c>
-      <c r="H216">
-        <v>100</v>
+      <c r="H216" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6039,8 +6042,8 @@
       <c r="G217">
         <v>0.0325</v>
       </c>
-      <c r="H217">
-        <v>100</v>
+      <c r="H217" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6065,8 +6068,8 @@
       <c r="G218">
         <v>0.0515</v>
       </c>
-      <c r="H218">
-        <v>100</v>
+      <c r="H218" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6091,8 +6094,8 @@
       <c r="G219">
         <v>0.0515</v>
       </c>
-      <c r="H219">
-        <v>100</v>
+      <c r="H219" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6117,8 +6120,8 @@
       <c r="G220">
         <v>0.0515</v>
       </c>
-      <c r="H220">
-        <v>100</v>
+      <c r="H220" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6143,8 +6146,8 @@
       <c r="G221">
         <v>0.0515</v>
       </c>
-      <c r="H221">
-        <v>100</v>
+      <c r="H221" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6169,8 +6172,8 @@
       <c r="G222">
         <v>0.0515</v>
       </c>
-      <c r="H222">
-        <v>100</v>
+      <c r="H222" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6195,8 +6198,8 @@
       <c r="G223">
         <v>0.0515</v>
       </c>
-      <c r="H223">
-        <v>100</v>
+      <c r="H223" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6221,8 +6224,8 @@
       <c r="G224">
         <v>0.0515</v>
       </c>
-      <c r="H224">
-        <v>100</v>
+      <c r="H224" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6247,8 +6250,8 @@
       <c r="G225">
         <v>0.0515</v>
       </c>
-      <c r="H225">
-        <v>100</v>
+      <c r="H225" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6273,8 +6276,8 @@
       <c r="G226">
         <v>0.0515</v>
       </c>
-      <c r="H226">
-        <v>100</v>
+      <c r="H226" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6299,8 +6302,8 @@
       <c r="G227">
         <v>0.0515</v>
       </c>
-      <c r="H227">
-        <v>100</v>
+      <c r="H227" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6325,8 +6328,8 @@
       <c r="G228">
         <v>0.0815</v>
       </c>
-      <c r="H228">
-        <v>100</v>
+      <c r="H228" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6351,8 +6354,8 @@
       <c r="G229">
         <v>0.0815</v>
       </c>
-      <c r="H229">
-        <v>100</v>
+      <c r="H229" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6377,8 +6380,8 @@
       <c r="G230">
         <v>0.0815</v>
       </c>
-      <c r="H230">
-        <v>100</v>
+      <c r="H230" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6403,8 +6406,8 @@
       <c r="G231">
         <v>0.0815</v>
       </c>
-      <c r="H231">
-        <v>100</v>
+      <c r="H231" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6429,8 +6432,8 @@
       <c r="G232">
         <v>0.0815</v>
       </c>
-      <c r="H232">
-        <v>100</v>
+      <c r="H232" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6455,8 +6458,8 @@
       <c r="G233">
         <v>0.0815</v>
       </c>
-      <c r="H233">
-        <v>100</v>
+      <c r="H233" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6481,8 +6484,8 @@
       <c r="G234">
         <v>0.0815</v>
       </c>
-      <c r="H234">
-        <v>100</v>
+      <c r="H234" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6507,8 +6510,8 @@
       <c r="G235">
         <v>0.0815</v>
       </c>
-      <c r="H235">
-        <v>100</v>
+      <c r="H235" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6533,8 +6536,8 @@
       <c r="G236">
         <v>0.0815</v>
       </c>
-      <c r="H236">
-        <v>100</v>
+      <c r="H236" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6559,8 +6562,8 @@
       <c r="G237">
         <v>0.0815</v>
       </c>
-      <c r="H237">
-        <v>100</v>
+      <c r="H237" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6585,8 +6588,8 @@
       <c r="G238">
         <v>0.0815</v>
       </c>
-      <c r="H238">
-        <v>100</v>
+      <c r="H238" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6611,8 +6614,8 @@
       <c r="G239">
         <v>0.129</v>
       </c>
-      <c r="H239">
-        <v>100</v>
+      <c r="H239" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6637,8 +6640,8 @@
       <c r="G240">
         <v>0.129</v>
       </c>
-      <c r="H240">
-        <v>100</v>
+      <c r="H240" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6663,8 +6666,8 @@
       <c r="G241">
         <v>0.129</v>
       </c>
-      <c r="H241">
-        <v>100</v>
+      <c r="H241" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6689,8 +6692,8 @@
       <c r="G242">
         <v>0.129</v>
       </c>
-      <c r="H242">
-        <v>100</v>
+      <c r="H242" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6715,8 +6718,8 @@
       <c r="G243">
         <v>0.129</v>
       </c>
-      <c r="H243">
-        <v>100</v>
+      <c r="H243" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6741,8 +6744,8 @@
       <c r="G244">
         <v>0.129</v>
       </c>
-      <c r="H244">
-        <v>100</v>
+      <c r="H244" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6767,8 +6770,8 @@
       <c r="G245">
         <v>0.129</v>
       </c>
-      <c r="H245">
-        <v>100</v>
+      <c r="H245" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6793,8 +6796,8 @@
       <c r="G246">
         <v>0.129</v>
       </c>
-      <c r="H246">
-        <v>100</v>
+      <c r="H246" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6819,8 +6822,8 @@
       <c r="G247">
         <v>0.129</v>
       </c>
-      <c r="H247">
-        <v>100</v>
+      <c r="H247" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6845,8 +6848,8 @@
       <c r="G248">
         <v>0.129</v>
       </c>
-      <c r="H248">
-        <v>100</v>
+      <c r="H248" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6871,8 +6874,8 @@
       <c r="G249">
         <v>0.129</v>
       </c>
-      <c r="H249">
-        <v>100</v>
+      <c r="H249" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6897,8 +6900,8 @@
       <c r="G250">
         <v>0.129</v>
       </c>
-      <c r="H250">
-        <v>100</v>
+      <c r="H250" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6923,8 +6926,8 @@
       <c r="G251">
         <v>0.205</v>
       </c>
-      <c r="H251">
-        <v>100</v>
+      <c r="H251" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6949,8 +6952,8 @@
       <c r="G252">
         <v>0.205</v>
       </c>
-      <c r="H252">
-        <v>100</v>
+      <c r="H252" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6975,8 +6978,8 @@
       <c r="G253">
         <v>0.205</v>
       </c>
-      <c r="H253">
-        <v>100</v>
+      <c r="H253" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7001,8 +7004,8 @@
       <c r="G254">
         <v>0.205</v>
       </c>
-      <c r="H254">
-        <v>100</v>
+      <c r="H254" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7027,8 +7030,8 @@
       <c r="G255">
         <v>0.205</v>
       </c>
-      <c r="H255">
-        <v>100</v>
+      <c r="H255" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7053,8 +7056,8 @@
       <c r="G256">
         <v>0.205</v>
       </c>
-      <c r="H256">
-        <v>100</v>
+      <c r="H256" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7079,8 +7082,8 @@
       <c r="G257">
         <v>0.205</v>
       </c>
-      <c r="H257">
-        <v>100</v>
+      <c r="H257" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7105,8 +7108,8 @@
       <c r="G258">
         <v>0.205</v>
       </c>
-      <c r="H258">
-        <v>100</v>
+      <c r="H258" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7131,8 +7134,8 @@
       <c r="G259">
         <v>0.205</v>
       </c>
-      <c r="H259">
-        <v>100</v>
+      <c r="H259" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7157,8 +7160,8 @@
       <c r="G260">
         <v>0.205</v>
       </c>
-      <c r="H260">
-        <v>100</v>
+      <c r="H260" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7183,8 +7186,8 @@
       <c r="G261">
         <v>0.205</v>
       </c>
-      <c r="H261">
-        <v>100</v>
+      <c r="H261" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7209,8 +7212,8 @@
       <c r="G262">
         <v>0.205</v>
       </c>
-      <c r="H262">
-        <v>100</v>
+      <c r="H262" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7235,8 +7238,8 @@
       <c r="G263">
         <v>0.205</v>
       </c>
-      <c r="H263">
-        <v>100</v>
+      <c r="H263" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7261,8 +7264,8 @@
       <c r="G264">
         <v>0.325</v>
       </c>
-      <c r="H264">
-        <v>100</v>
+      <c r="H264" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7287,8 +7290,8 @@
       <c r="G265">
         <v>0.325</v>
       </c>
-      <c r="H265">
-        <v>100</v>
+      <c r="H265" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7313,8 +7316,8 @@
       <c r="G266">
         <v>0.325</v>
       </c>
-      <c r="H266">
-        <v>100</v>
+      <c r="H266" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7339,8 +7342,8 @@
       <c r="G267">
         <v>0.325</v>
       </c>
-      <c r="H267">
-        <v>100</v>
+      <c r="H267" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7365,8 +7368,8 @@
       <c r="G268">
         <v>0.325</v>
       </c>
-      <c r="H268">
-        <v>100</v>
+      <c r="H268" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7391,8 +7394,8 @@
       <c r="G269">
         <v>0.325</v>
       </c>
-      <c r="H269">
-        <v>100</v>
+      <c r="H269" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7417,8 +7420,8 @@
       <c r="G270">
         <v>0.325</v>
       </c>
-      <c r="H270">
-        <v>100</v>
+      <c r="H270" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7443,8 +7446,8 @@
       <c r="G271">
         <v>0.325</v>
       </c>
-      <c r="H271">
-        <v>100</v>
+      <c r="H271" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7469,8 +7472,8 @@
       <c r="G272">
         <v>0.325</v>
       </c>
-      <c r="H272">
-        <v>100</v>
+      <c r="H272" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7495,8 +7498,8 @@
       <c r="G273">
         <v>0.325</v>
       </c>
-      <c r="H273">
-        <v>100</v>
+      <c r="H273" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7521,8 +7524,8 @@
       <c r="G274">
         <v>0.325</v>
       </c>
-      <c r="H274">
-        <v>100</v>
+      <c r="H274" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7547,8 +7550,8 @@
       <c r="G275">
         <v>0.325</v>
       </c>
-      <c r="H275">
-        <v>100</v>
+      <c r="H275" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7573,8 +7576,8 @@
       <c r="G276">
         <v>0.325</v>
       </c>
-      <c r="H276">
-        <v>100</v>
+      <c r="H276" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7599,8 +7602,8 @@
       <c r="G277">
         <v>0.325</v>
       </c>
-      <c r="H277">
-        <v>100</v>
+      <c r="H277" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7625,8 +7628,8 @@
       <c r="G278">
         <v>0.325</v>
       </c>
-      <c r="H278">
-        <v>100</v>
+      <c r="H278" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7651,8 +7654,8 @@
       <c r="G279">
         <v>0.515</v>
       </c>
-      <c r="H279">
-        <v>100</v>
+      <c r="H279" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7677,8 +7680,8 @@
       <c r="G280">
         <v>0.515</v>
       </c>
-      <c r="H280">
-        <v>100</v>
+      <c r="H280" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7703,8 +7706,8 @@
       <c r="G281">
         <v>0.515</v>
       </c>
-      <c r="H281">
-        <v>100</v>
+      <c r="H281" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7729,8 +7732,8 @@
       <c r="G282">
         <v>0.515</v>
       </c>
-      <c r="H282">
-        <v>100</v>
+      <c r="H282" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7755,8 +7758,8 @@
       <c r="G283">
         <v>0.515</v>
       </c>
-      <c r="H283">
-        <v>100</v>
+      <c r="H283" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7781,8 +7784,8 @@
       <c r="G284">
         <v>0.515</v>
       </c>
-      <c r="H284">
-        <v>100</v>
+      <c r="H284" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7807,8 +7810,8 @@
       <c r="G285">
         <v>0.515</v>
       </c>
-      <c r="H285">
-        <v>100</v>
+      <c r="H285" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7833,8 +7836,8 @@
       <c r="G286">
         <v>0.515</v>
       </c>
-      <c r="H286">
-        <v>100</v>
+      <c r="H286" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7859,8 +7862,8 @@
       <c r="G287">
         <v>0.515</v>
       </c>
-      <c r="H287">
-        <v>100</v>
+      <c r="H287" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7885,8 +7888,8 @@
       <c r="G288">
         <v>0.515</v>
       </c>
-      <c r="H288">
-        <v>100</v>
+      <c r="H288" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7911,8 +7914,8 @@
       <c r="G289">
         <v>0.515</v>
       </c>
-      <c r="H289">
-        <v>100</v>
+      <c r="H289" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7937,8 +7940,8 @@
       <c r="G290">
         <v>0.515</v>
       </c>
-      <c r="H290">
-        <v>100</v>
+      <c r="H290" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7963,8 +7966,8 @@
       <c r="G291">
         <v>0.515</v>
       </c>
-      <c r="H291">
-        <v>100</v>
+      <c r="H291" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7989,8 +7992,8 @@
       <c r="G292">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H292">
-        <v>100</v>
+      <c r="H292" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8015,8 +8018,8 @@
       <c r="G293">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H293">
-        <v>100</v>
+      <c r="H293" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8041,8 +8044,8 @@
       <c r="G294">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H294">
-        <v>100</v>
+      <c r="H294" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8067,8 +8070,8 @@
       <c r="G295">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H295">
-        <v>100</v>
+      <c r="H295" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8093,8 +8096,8 @@
       <c r="G296">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H296">
-        <v>100</v>
+      <c r="H296" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8119,8 +8122,8 @@
       <c r="G297">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H297">
-        <v>100</v>
+      <c r="H297" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8145,8 +8148,8 @@
       <c r="G298">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H298">
-        <v>100</v>
+      <c r="H298" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8171,8 +8174,8 @@
       <c r="G299">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H299">
-        <v>100</v>
+      <c r="H299" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8197,8 +8200,8 @@
       <c r="G300">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H300">
-        <v>100</v>
+      <c r="H300" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8223,8 +8226,8 @@
       <c r="G301">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H301">
-        <v>100</v>
+      <c r="H301" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8249,8 +8252,8 @@
       <c r="G302">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H302">
-        <v>100</v>
+      <c r="H302" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8275,8 +8278,8 @@
       <c r="G303">
         <v>0.000205</v>
       </c>
-      <c r="H303">
-        <v>100</v>
+      <c r="H303" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8301,8 +8304,8 @@
       <c r="G304">
         <v>0.000325</v>
       </c>
-      <c r="H304">
-        <v>100</v>
+      <c r="H304" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8327,8 +8330,8 @@
       <c r="G305">
         <v>0.000325</v>
       </c>
-      <c r="H305">
-        <v>100</v>
+      <c r="H305" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8353,8 +8356,8 @@
       <c r="G306">
         <v>0.000515</v>
       </c>
-      <c r="H306">
-        <v>100</v>
+      <c r="H306" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8379,8 +8382,8 @@
       <c r="G307">
         <v>0.000515</v>
       </c>
-      <c r="H307">
-        <v>100</v>
+      <c r="H307" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8405,8 +8408,8 @@
       <c r="G308">
         <v>0.000515</v>
       </c>
-      <c r="H308">
-        <v>100</v>
+      <c r="H308" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8431,8 +8434,8 @@
       <c r="G309">
         <v>0.000815</v>
       </c>
-      <c r="H309">
-        <v>100</v>
+      <c r="H309" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8457,8 +8460,8 @@
       <c r="G310">
         <v>0.000815</v>
       </c>
-      <c r="H310">
-        <v>100</v>
+      <c r="H310" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8483,8 +8486,8 @@
       <c r="G311">
         <v>0.000815</v>
       </c>
-      <c r="H311">
-        <v>100</v>
+      <c r="H311" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8509,8 +8512,8 @@
       <c r="G312">
         <v>0.000815</v>
       </c>
-      <c r="H312">
-        <v>100</v>
+      <c r="H312" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8535,8 +8538,8 @@
       <c r="G313">
         <v>0.00129</v>
       </c>
-      <c r="H313">
-        <v>100</v>
+      <c r="H313" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8561,8 +8564,8 @@
       <c r="G314">
         <v>0.00129</v>
       </c>
-      <c r="H314">
-        <v>100</v>
+      <c r="H314" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8587,8 +8590,8 @@
       <c r="G315">
         <v>0.00129</v>
       </c>
-      <c r="H315">
-        <v>100</v>
+      <c r="H315" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8613,8 +8616,8 @@
       <c r="G316">
         <v>0.00129</v>
       </c>
-      <c r="H316">
-        <v>100</v>
+      <c r="H316" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8639,8 +8642,8 @@
       <c r="G317">
         <v>0.00129</v>
       </c>
-      <c r="H317">
-        <v>100</v>
+      <c r="H317" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8665,8 +8668,8 @@
       <c r="G318">
         <v>0.00205</v>
       </c>
-      <c r="H318">
-        <v>100</v>
+      <c r="H318" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8691,8 +8694,8 @@
       <c r="G319">
         <v>0.00205</v>
       </c>
-      <c r="H319">
-        <v>100</v>
+      <c r="H319" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8717,8 +8720,8 @@
       <c r="G320">
         <v>0.00205</v>
       </c>
-      <c r="H320">
-        <v>100</v>
+      <c r="H320" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8743,8 +8746,8 @@
       <c r="G321">
         <v>0.00205</v>
       </c>
-      <c r="H321">
-        <v>100</v>
+      <c r="H321" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8769,8 +8772,8 @@
       <c r="G322">
         <v>0.00205</v>
       </c>
-      <c r="H322">
-        <v>100</v>
+      <c r="H322" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8795,8 +8798,8 @@
       <c r="G323">
         <v>0.00205</v>
       </c>
-      <c r="H323">
-        <v>100</v>
+      <c r="H323" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8821,8 +8824,8 @@
       <c r="G324">
         <v>0.00325</v>
       </c>
-      <c r="H324">
-        <v>100</v>
+      <c r="H324" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8847,8 +8850,8 @@
       <c r="G325">
         <v>0.00325</v>
       </c>
-      <c r="H325">
-        <v>100</v>
+      <c r="H325" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8873,8 +8876,8 @@
       <c r="G326">
         <v>0.00325</v>
       </c>
-      <c r="H326">
-        <v>100</v>
+      <c r="H326" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8899,8 +8902,8 @@
       <c r="G327">
         <v>0.00325</v>
       </c>
-      <c r="H327">
-        <v>100</v>
+      <c r="H327" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8925,8 +8928,8 @@
       <c r="G328">
         <v>0.00325</v>
       </c>
-      <c r="H328">
-        <v>100</v>
+      <c r="H328" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8951,8 +8954,8 @@
       <c r="G329">
         <v>0.00325</v>
       </c>
-      <c r="H329">
-        <v>100</v>
+      <c r="H329" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8977,8 +8980,8 @@
       <c r="G330">
         <v>0.00325</v>
       </c>
-      <c r="H330">
-        <v>100</v>
+      <c r="H330" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9003,8 +9006,8 @@
       <c r="G331">
         <v>0.00515</v>
       </c>
-      <c r="H331">
-        <v>100</v>
+      <c r="H331" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9029,8 +9032,8 @@
       <c r="G332">
         <v>0.00515</v>
       </c>
-      <c r="H332">
-        <v>100</v>
+      <c r="H332" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9055,8 +9058,8 @@
       <c r="G333">
         <v>0.00515</v>
       </c>
-      <c r="H333">
-        <v>100</v>
+      <c r="H333" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9081,8 +9084,8 @@
       <c r="G334">
         <v>0.00515</v>
       </c>
-      <c r="H334">
-        <v>100</v>
+      <c r="H334" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9107,8 +9110,8 @@
       <c r="G335">
         <v>0.00515</v>
       </c>
-      <c r="H335">
-        <v>100</v>
+      <c r="H335" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9133,8 +9136,8 @@
       <c r="G336">
         <v>0.00515</v>
       </c>
-      <c r="H336">
-        <v>100</v>
+      <c r="H336" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9159,8 +9162,8 @@
       <c r="G337">
         <v>0.00515</v>
       </c>
-      <c r="H337">
-        <v>100</v>
+      <c r="H337" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9185,8 +9188,8 @@
       <c r="G338">
         <v>0.00515</v>
       </c>
-      <c r="H338">
-        <v>100</v>
+      <c r="H338" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9211,8 +9214,8 @@
       <c r="G339">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H339">
-        <v>100</v>
+      <c r="H339" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9237,8 +9240,8 @@
       <c r="G340">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H340">
-        <v>100</v>
+      <c r="H340" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9263,8 +9266,8 @@
       <c r="G341">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H341">
-        <v>100</v>
+      <c r="H341" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9289,8 +9292,8 @@
       <c r="G342">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H342">
-        <v>100</v>
+      <c r="H342" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9315,8 +9318,8 @@
       <c r="G343">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H343">
-        <v>100</v>
+      <c r="H343" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9341,8 +9344,8 @@
       <c r="G344">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H344">
-        <v>100</v>
+      <c r="H344" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9367,8 +9370,8 @@
       <c r="G345">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H345">
-        <v>100</v>
+      <c r="H345" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9393,8 +9396,8 @@
       <c r="G346">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H346">
-        <v>100</v>
+      <c r="H346" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9419,8 +9422,8 @@
       <c r="G347">
         <v>0.008149999999999999</v>
       </c>
-      <c r="H347">
-        <v>100</v>
+      <c r="H347" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9445,8 +9448,8 @@
       <c r="G348">
         <v>0.0129</v>
       </c>
-      <c r="H348">
-        <v>100</v>
+      <c r="H348" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9471,8 +9474,8 @@
       <c r="G349">
         <v>0.0129</v>
       </c>
-      <c r="H349">
-        <v>100</v>
+      <c r="H349" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9497,8 +9500,8 @@
       <c r="G350">
         <v>0.0129</v>
       </c>
-      <c r="H350">
-        <v>100</v>
+      <c r="H350" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9523,8 +9526,8 @@
       <c r="G351">
         <v>0.0129</v>
       </c>
-      <c r="H351">
-        <v>100</v>
+      <c r="H351" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9549,8 +9552,8 @@
       <c r="G352">
         <v>0.0129</v>
       </c>
-      <c r="H352">
-        <v>100</v>
+      <c r="H352" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9575,8 +9578,8 @@
       <c r="G353">
         <v>0.0129</v>
       </c>
-      <c r="H353">
-        <v>100</v>
+      <c r="H353" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9601,8 +9604,8 @@
       <c r="G354">
         <v>0.0129</v>
       </c>
-      <c r="H354">
-        <v>100</v>
+      <c r="H354" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9627,8 +9630,8 @@
       <c r="G355">
         <v>0.0129</v>
       </c>
-      <c r="H355">
-        <v>100</v>
+      <c r="H355" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9653,8 +9656,8 @@
       <c r="G356">
         <v>0.0129</v>
       </c>
-      <c r="H356">
-        <v>100</v>
+      <c r="H356" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9679,8 +9682,8 @@
       <c r="G357">
         <v>0.0129</v>
       </c>
-      <c r="H357">
-        <v>100</v>
+      <c r="H357" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9705,8 +9708,8 @@
       <c r="G358">
         <v>0.0205</v>
       </c>
-      <c r="H358">
-        <v>100</v>
+      <c r="H358" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9731,8 +9734,8 @@
       <c r="G359">
         <v>0.0205</v>
       </c>
-      <c r="H359">
-        <v>100</v>
+      <c r="H359" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9757,8 +9760,8 @@
       <c r="G360">
         <v>0.0205</v>
       </c>
-      <c r="H360">
-        <v>100</v>
+      <c r="H360" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9783,8 +9786,8 @@
       <c r="G361">
         <v>0.0205</v>
       </c>
-      <c r="H361">
-        <v>100</v>
+      <c r="H361" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9809,8 +9812,8 @@
       <c r="G362">
         <v>0.0205</v>
       </c>
-      <c r="H362">
-        <v>100</v>
+      <c r="H362" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9835,8 +9838,8 @@
       <c r="G363">
         <v>0.0205</v>
       </c>
-      <c r="H363">
-        <v>100</v>
+      <c r="H363" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9861,8 +9864,8 @@
       <c r="G364">
         <v>0.0205</v>
       </c>
-      <c r="H364">
-        <v>100</v>
+      <c r="H364" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9887,8 +9890,8 @@
       <c r="G365">
         <v>0.0205</v>
       </c>
-      <c r="H365">
-        <v>100</v>
+      <c r="H365" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9913,8 +9916,8 @@
       <c r="G366">
         <v>0.0205</v>
       </c>
-      <c r="H366">
-        <v>100</v>
+      <c r="H366" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9939,8 +9942,8 @@
       <c r="G367">
         <v>0.0205</v>
       </c>
-      <c r="H367">
-        <v>100</v>
+      <c r="H367" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9965,8 +9968,8 @@
       <c r="G368">
         <v>0.0205</v>
       </c>
-      <c r="H368">
-        <v>100</v>
+      <c r="H368" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9991,8 +9994,8 @@
       <c r="G369">
         <v>0.0325</v>
       </c>
-      <c r="H369">
-        <v>100</v>
+      <c r="H369" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10017,8 +10020,8 @@
       <c r="G370">
         <v>0.0325</v>
       </c>
-      <c r="H370">
-        <v>100</v>
+      <c r="H370" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10043,8 +10046,8 @@
       <c r="G371">
         <v>0.0325</v>
       </c>
-      <c r="H371">
-        <v>100</v>
+      <c r="H371" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10069,8 +10072,8 @@
       <c r="G372">
         <v>0.0325</v>
       </c>
-      <c r="H372">
-        <v>100</v>
+      <c r="H372" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10095,8 +10098,8 @@
       <c r="G373">
         <v>0.0325</v>
       </c>
-      <c r="H373">
-        <v>100</v>
+      <c r="H373" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10121,8 +10124,8 @@
       <c r="G374">
         <v>0.0325</v>
       </c>
-      <c r="H374">
-        <v>100</v>
+      <c r="H374" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10147,8 +10150,8 @@
       <c r="G375">
         <v>0.0325</v>
       </c>
-      <c r="H375">
-        <v>100</v>
+      <c r="H375" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10173,8 +10176,8 @@
       <c r="G376">
         <v>0.0325</v>
       </c>
-      <c r="H376">
-        <v>100</v>
+      <c r="H376" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10199,8 +10202,8 @@
       <c r="G377">
         <v>0.0325</v>
       </c>
-      <c r="H377">
-        <v>100</v>
+      <c r="H377" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10225,8 +10228,8 @@
       <c r="G378">
         <v>0.0325</v>
       </c>
-      <c r="H378">
-        <v>100</v>
+      <c r="H378" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10251,8 +10254,8 @@
       <c r="G379">
         <v>0.0325</v>
       </c>
-      <c r="H379">
-        <v>100</v>
+      <c r="H379" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10277,8 +10280,8 @@
       <c r="G380">
         <v>0.0325</v>
       </c>
-      <c r="H380">
-        <v>100</v>
+      <c r="H380" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10303,8 +10306,8 @@
       <c r="G381">
         <v>0.0515</v>
       </c>
-      <c r="H381">
-        <v>100</v>
+      <c r="H381" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10329,8 +10332,8 @@
       <c r="G382">
         <v>0.0515</v>
       </c>
-      <c r="H382">
-        <v>100</v>
+      <c r="H382" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10355,8 +10358,8 @@
       <c r="G383">
         <v>0.0515</v>
       </c>
-      <c r="H383">
-        <v>100</v>
+      <c r="H383" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10381,8 +10384,8 @@
       <c r="G384">
         <v>0.0515</v>
       </c>
-      <c r="H384">
-        <v>100</v>
+      <c r="H384" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10407,8 +10410,8 @@
       <c r="G385">
         <v>0.0515</v>
       </c>
-      <c r="H385">
-        <v>100</v>
+      <c r="H385" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10433,8 +10436,8 @@
       <c r="G386">
         <v>0.0515</v>
       </c>
-      <c r="H386">
-        <v>100</v>
+      <c r="H386" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10459,8 +10462,8 @@
       <c r="G387">
         <v>0.0515</v>
       </c>
-      <c r="H387">
-        <v>100</v>
+      <c r="H387" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10485,8 +10488,8 @@
       <c r="G388">
         <v>0.0515</v>
       </c>
-      <c r="H388">
-        <v>100</v>
+      <c r="H388" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10511,8 +10514,8 @@
       <c r="G389">
         <v>0.0515</v>
       </c>
-      <c r="H389">
-        <v>100</v>
+      <c r="H389" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10537,8 +10540,8 @@
       <c r="G390">
         <v>0.0515</v>
       </c>
-      <c r="H390">
-        <v>100</v>
+      <c r="H390" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10563,8 +10566,8 @@
       <c r="G391">
         <v>0.0515</v>
       </c>
-      <c r="H391">
-        <v>100</v>
+      <c r="H391" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10589,8 +10592,8 @@
       <c r="G392">
         <v>0.0515</v>
       </c>
-      <c r="H392">
-        <v>100</v>
+      <c r="H392" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10615,8 +10618,8 @@
       <c r="G393">
         <v>0.0515</v>
       </c>
-      <c r="H393">
-        <v>100</v>
+      <c r="H393" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10641,8 +10644,8 @@
       <c r="G394">
         <v>0.0815</v>
       </c>
-      <c r="H394">
-        <v>100</v>
+      <c r="H394" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10667,8 +10670,8 @@
       <c r="G395">
         <v>0.0815</v>
       </c>
-      <c r="H395">
-        <v>100</v>
+      <c r="H395" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10693,8 +10696,8 @@
       <c r="G396">
         <v>0.0815</v>
       </c>
-      <c r="H396">
-        <v>100</v>
+      <c r="H396" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10719,8 +10722,8 @@
       <c r="G397">
         <v>0.0815</v>
       </c>
-      <c r="H397">
-        <v>100</v>
+      <c r="H397" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10745,8 +10748,8 @@
       <c r="G398">
         <v>0.0815</v>
       </c>
-      <c r="H398">
-        <v>100</v>
+      <c r="H398" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10771,8 +10774,8 @@
       <c r="G399">
         <v>0.0815</v>
       </c>
-      <c r="H399">
-        <v>100</v>
+      <c r="H399" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10797,8 +10800,8 @@
       <c r="G400">
         <v>0.0815</v>
       </c>
-      <c r="H400">
-        <v>100</v>
+      <c r="H400" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10823,8 +10826,8 @@
       <c r="G401">
         <v>0.0815</v>
       </c>
-      <c r="H401">
-        <v>100</v>
+      <c r="H401" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10849,8 +10852,8 @@
       <c r="G402">
         <v>0.0815</v>
       </c>
-      <c r="H402">
-        <v>100</v>
+      <c r="H402" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10875,8 +10878,8 @@
       <c r="G403">
         <v>0.0815</v>
       </c>
-      <c r="H403">
-        <v>100</v>
+      <c r="H403" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10901,8 +10904,8 @@
       <c r="G404">
         <v>0.0815</v>
       </c>
-      <c r="H404">
-        <v>100</v>
+      <c r="H404" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10927,8 +10930,8 @@
       <c r="G405">
         <v>0.0815</v>
       </c>
-      <c r="H405">
-        <v>100</v>
+      <c r="H405" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10953,8 +10956,8 @@
       <c r="G406">
         <v>0.0815</v>
       </c>
-      <c r="H406">
-        <v>100</v>
+      <c r="H406" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10979,8 +10982,8 @@
       <c r="G407">
         <v>0.0815</v>
       </c>
-      <c r="H407">
-        <v>100</v>
+      <c r="H407" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11005,8 +11008,8 @@
       <c r="G408">
         <v>0.129</v>
       </c>
-      <c r="H408">
-        <v>100</v>
+      <c r="H408" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11031,8 +11034,8 @@
       <c r="G409">
         <v>0.129</v>
       </c>
-      <c r="H409">
-        <v>100</v>
+      <c r="H409" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11057,8 +11060,8 @@
       <c r="G410">
         <v>0.129</v>
       </c>
-      <c r="H410">
-        <v>100</v>
+      <c r="H410" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11083,8 +11086,8 @@
       <c r="G411">
         <v>0.129</v>
       </c>
-      <c r="H411">
-        <v>100</v>
+      <c r="H411" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11109,8 +11112,8 @@
       <c r="G412">
         <v>0.129</v>
       </c>
-      <c r="H412">
-        <v>100</v>
+      <c r="H412" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11135,8 +11138,8 @@
       <c r="G413">
         <v>0.129</v>
       </c>
-      <c r="H413">
-        <v>100</v>
+      <c r="H413" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11161,8 +11164,8 @@
       <c r="G414">
         <v>0.129</v>
       </c>
-      <c r="H414">
-        <v>100</v>
+      <c r="H414" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11187,8 +11190,8 @@
       <c r="G415">
         <v>0.129</v>
       </c>
-      <c r="H415">
-        <v>100</v>
+      <c r="H415" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11213,8 +11216,8 @@
       <c r="G416">
         <v>0.129</v>
       </c>
-      <c r="H416">
-        <v>100</v>
+      <c r="H416" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11239,8 +11242,8 @@
       <c r="G417">
         <v>0.129</v>
       </c>
-      <c r="H417">
-        <v>100</v>
+      <c r="H417" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11265,8 +11268,8 @@
       <c r="G418">
         <v>0.129</v>
       </c>
-      <c r="H418">
-        <v>100</v>
+      <c r="H418" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11291,8 +11294,8 @@
       <c r="G419">
         <v>0.129</v>
       </c>
-      <c r="H419">
-        <v>100</v>
+      <c r="H419" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11317,8 +11320,8 @@
       <c r="G420">
         <v>0.129</v>
       </c>
-      <c r="H420">
-        <v>100</v>
+      <c r="H420" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11343,8 +11346,8 @@
       <c r="G421">
         <v>0.129</v>
       </c>
-      <c r="H421">
-        <v>100</v>
+      <c r="H421" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11369,8 +11372,8 @@
       <c r="G422">
         <v>0.129</v>
       </c>
-      <c r="H422">
-        <v>100</v>
+      <c r="H422" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11395,8 +11398,8 @@
       <c r="G423">
         <v>0.205</v>
       </c>
-      <c r="H423">
-        <v>100</v>
+      <c r="H423" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11421,8 +11424,8 @@
       <c r="G424">
         <v>0.205</v>
       </c>
-      <c r="H424">
-        <v>100</v>
+      <c r="H424" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11447,8 +11450,8 @@
       <c r="G425">
         <v>0.205</v>
       </c>
-      <c r="H425">
-        <v>100</v>
+      <c r="H425" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11473,8 +11476,8 @@
       <c r="G426">
         <v>0.205</v>
       </c>
-      <c r="H426">
-        <v>100</v>
+      <c r="H426" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11499,8 +11502,8 @@
       <c r="G427">
         <v>0.205</v>
       </c>
-      <c r="H427">
-        <v>100</v>
+      <c r="H427" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11525,8 +11528,8 @@
       <c r="G428">
         <v>0.205</v>
       </c>
-      <c r="H428">
-        <v>100</v>
+      <c r="H428" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11551,8 +11554,8 @@
       <c r="G429">
         <v>0.205</v>
       </c>
-      <c r="H429">
-        <v>100</v>
+      <c r="H429" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11577,8 +11580,8 @@
       <c r="G430">
         <v>0.205</v>
       </c>
-      <c r="H430">
-        <v>100</v>
+      <c r="H430" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11603,8 +11606,8 @@
       <c r="G431">
         <v>0.205</v>
       </c>
-      <c r="H431">
-        <v>100</v>
+      <c r="H431" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11629,8 +11632,8 @@
       <c r="G432">
         <v>0.205</v>
       </c>
-      <c r="H432">
-        <v>100</v>
+      <c r="H432" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11655,8 +11658,8 @@
       <c r="G433">
         <v>0.205</v>
       </c>
-      <c r="H433">
-        <v>100</v>
+      <c r="H433" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11681,8 +11684,8 @@
       <c r="G434">
         <v>0.205</v>
       </c>
-      <c r="H434">
-        <v>100</v>
+      <c r="H434" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11707,8 +11710,8 @@
       <c r="G435">
         <v>0.205</v>
       </c>
-      <c r="H435">
-        <v>100</v>
+      <c r="H435" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11733,8 +11736,8 @@
       <c r="G436">
         <v>0.205</v>
       </c>
-      <c r="H436">
-        <v>100</v>
+      <c r="H436" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11759,8 +11762,8 @@
       <c r="G437">
         <v>0.205</v>
       </c>
-      <c r="H437">
-        <v>100</v>
+      <c r="H437" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11785,8 +11788,8 @@
       <c r="G438">
         <v>0.205</v>
       </c>
-      <c r="H438">
-        <v>100</v>
+      <c r="H438" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11811,8 +11814,8 @@
       <c r="G439">
         <v>0.325</v>
       </c>
-      <c r="H439">
-        <v>100</v>
+      <c r="H439" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11837,8 +11840,8 @@
       <c r="G440">
         <v>0.325</v>
       </c>
-      <c r="H440">
-        <v>100</v>
+      <c r="H440" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11863,8 +11866,8 @@
       <c r="G441">
         <v>0.325</v>
       </c>
-      <c r="H441">
-        <v>100</v>
+      <c r="H441" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11889,8 +11892,8 @@
       <c r="G442">
         <v>0.325</v>
       </c>
-      <c r="H442">
-        <v>100</v>
+      <c r="H442" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11915,8 +11918,8 @@
       <c r="G443">
         <v>0.325</v>
       </c>
-      <c r="H443">
-        <v>100</v>
+      <c r="H443" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11941,8 +11944,8 @@
       <c r="G444">
         <v>0.325</v>
       </c>
-      <c r="H444">
-        <v>100</v>
+      <c r="H444" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11967,8 +11970,8 @@
       <c r="G445">
         <v>0.325</v>
       </c>
-      <c r="H445">
-        <v>100</v>
+      <c r="H445" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11993,8 +11996,8 @@
       <c r="G446">
         <v>0.325</v>
       </c>
-      <c r="H446">
-        <v>100</v>
+      <c r="H446" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12019,8 +12022,8 @@
       <c r="G447">
         <v>0.325</v>
       </c>
-      <c r="H447">
-        <v>100</v>
+      <c r="H447" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12045,8 +12048,8 @@
       <c r="G448">
         <v>0.325</v>
       </c>
-      <c r="H448">
-        <v>100</v>
+      <c r="H448" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12071,8 +12074,8 @@
       <c r="G449">
         <v>0.325</v>
       </c>
-      <c r="H449">
-        <v>100</v>
+      <c r="H449" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12097,8 +12100,8 @@
       <c r="G450">
         <v>0.325</v>
       </c>
-      <c r="H450">
-        <v>100</v>
+      <c r="H450" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12123,8 +12126,8 @@
       <c r="G451">
         <v>0.325</v>
       </c>
-      <c r="H451">
-        <v>100</v>
+      <c r="H451" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12149,8 +12152,8 @@
       <c r="G452">
         <v>0.325</v>
       </c>
-      <c r="H452">
-        <v>100</v>
+      <c r="H452" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12175,8 +12178,8 @@
       <c r="G453">
         <v>0.325</v>
       </c>
-      <c r="H453">
-        <v>100</v>
+      <c r="H453" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12201,8 +12204,8 @@
       <c r="G454">
         <v>0.325</v>
       </c>
-      <c r="H454">
-        <v>100</v>
+      <c r="H454" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12227,8 +12230,8 @@
       <c r="G455">
         <v>0.325</v>
       </c>
-      <c r="H455">
-        <v>100</v>
+      <c r="H455" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12253,8 +12256,8 @@
       <c r="G456">
         <v>0.325</v>
       </c>
-      <c r="H456">
-        <v>100</v>
+      <c r="H456" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12279,8 +12282,8 @@
       <c r="G457">
         <v>0.515</v>
       </c>
-      <c r="H457">
-        <v>100</v>
+      <c r="H457" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12305,8 +12308,8 @@
       <c r="G458">
         <v>0.515</v>
       </c>
-      <c r="H458">
-        <v>100</v>
+      <c r="H458" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12331,8 +12334,8 @@
       <c r="G459">
         <v>0.515</v>
       </c>
-      <c r="H459">
-        <v>100</v>
+      <c r="H459" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12357,8 +12360,8 @@
       <c r="G460">
         <v>0.515</v>
       </c>
-      <c r="H460">
-        <v>100</v>
+      <c r="H460" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12383,8 +12386,8 @@
       <c r="G461">
         <v>0.515</v>
       </c>
-      <c r="H461">
-        <v>100</v>
+      <c r="H461" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12409,8 +12412,8 @@
       <c r="G462">
         <v>0.515</v>
       </c>
-      <c r="H462">
-        <v>100</v>
+      <c r="H462" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12435,8 +12438,8 @@
       <c r="G463">
         <v>0.515</v>
       </c>
-      <c r="H463">
-        <v>100</v>
+      <c r="H463" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12461,8 +12464,8 @@
       <c r="G464">
         <v>0.515</v>
       </c>
-      <c r="H464">
-        <v>100</v>
+      <c r="H464" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12487,8 +12490,8 @@
       <c r="G465">
         <v>0.515</v>
       </c>
-      <c r="H465">
-        <v>100</v>
+      <c r="H465" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12513,8 +12516,8 @@
       <c r="G466">
         <v>0.515</v>
       </c>
-      <c r="H466">
-        <v>100</v>
+      <c r="H466" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12539,8 +12542,8 @@
       <c r="G467">
         <v>0.515</v>
       </c>
-      <c r="H467">
-        <v>100</v>
+      <c r="H467" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12565,8 +12568,8 @@
       <c r="G468">
         <v>0.515</v>
       </c>
-      <c r="H468">
-        <v>100</v>
+      <c r="H468" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12591,8 +12594,8 @@
       <c r="G469">
         <v>0.515</v>
       </c>
-      <c r="H469">
-        <v>100</v>
+      <c r="H469" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12617,8 +12620,8 @@
       <c r="G470">
         <v>0.515</v>
       </c>
-      <c r="H470">
-        <v>100</v>
+      <c r="H470" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12643,8 +12646,8 @@
       <c r="G471">
         <v>0.515</v>
       </c>
-      <c r="H471">
-        <v>100</v>
+      <c r="H471" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12669,8 +12672,8 @@
       <c r="G472">
         <v>0.515</v>
       </c>
-      <c r="H472">
-        <v>100</v>
+      <c r="H472" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12695,8 +12698,8 @@
       <c r="G473">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H473">
-        <v>100</v>
+      <c r="H473" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12721,8 +12724,8 @@
       <c r="G474">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H474">
-        <v>100</v>
+      <c r="H474" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12747,8 +12750,8 @@
       <c r="G475">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H475">
-        <v>100</v>
+      <c r="H475" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12773,8 +12776,8 @@
       <c r="G476">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H476">
-        <v>100</v>
+      <c r="H476" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12799,8 +12802,8 @@
       <c r="G477">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H477">
-        <v>100</v>
+      <c r="H477" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12825,8 +12828,8 @@
       <c r="G478">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H478">
-        <v>100</v>
+      <c r="H478" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12851,8 +12854,8 @@
       <c r="G479">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H479">
-        <v>100</v>
+      <c r="H479" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12877,8 +12880,8 @@
       <c r="G480">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H480">
-        <v>100</v>
+      <c r="H480" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12903,8 +12906,8 @@
       <c r="G481">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H481">
-        <v>100</v>
+      <c r="H481" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12929,8 +12932,8 @@
       <c r="G482">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H482">
-        <v>100</v>
+      <c r="H482" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12955,8 +12958,8 @@
       <c r="G483">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H483">
-        <v>100</v>
+      <c r="H483" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12981,8 +12984,8 @@
       <c r="G484">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H484">
-        <v>100</v>
+      <c r="H484" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13007,8 +13010,8 @@
       <c r="G485">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H485">
-        <v>100</v>
+      <c r="H485" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
